--- a/regrunkey_chart.xlsx
+++ b/regrunkey_chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usbank.sharepoint.com/teams/ISSDetection/Shared Documents/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rwbythe/repos/github/darthmelon/threat_detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC594EB9-3B4F-4F73-8A4F-EBA0C2E37956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E27C6B-33DB-B94E-B38C-8833650F51F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1578" yWindow="1764" windowWidth="17280" windowHeight="10374" xr2:uid="{C467A83E-AB27-8D45-B04D-7704A3125B7D}"/>
+    <workbookView xWindow="4500" yWindow="3840" windowWidth="17280" windowHeight="10380" xr2:uid="{C467A83E-AB27-8D45-B04D-7704A3125B7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -696,7 +696,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1093,18 +1093,18 @@
       <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="121.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.25" customWidth="1"/>
-    <col min="8" max="8" width="55.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="121.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.1640625" customWidth="1"/>
+    <col min="8" max="8" width="55.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>23</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>23</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>23</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>23</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>23</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>23</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>23</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>23</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>23</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75">
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>23</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>23</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>23</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>23</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>23</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>23</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>23</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>23</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>23</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>23</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>23</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>23</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>23</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>23</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>23</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>23</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="15.75">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>23</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="15.75">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>23</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="15.75">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>23</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="15.75">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>23</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="15.75">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>23</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="15.75">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>23</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="15.75">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>23</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="15.75">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>23</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="15.75">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>23</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="15.75">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>23</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="15.75">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>23</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="15.75">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>23</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="15.75">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>23</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="15.75">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>23</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="2:6" ht="15.75">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>23</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="15.75">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>23</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="15.75">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>23</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="15.75">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>23</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="15.75">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>23</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="15.75">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>23</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="15.75">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>23</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="15.75">
+    <row r="70" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>23</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="15.75">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>23</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="15.75">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>23</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="15.75">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>95</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="15.75">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>95</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="15.75">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>95</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="15.75">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>95</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="15.75">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>95</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="15.75">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>95</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="15.75">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>95</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="15.75">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>95</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="2:3" ht="15.75">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>95</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="2:3" ht="15.75">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>95</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="2:3" ht="15.75">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>95</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="2:3" ht="15.75">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>95</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="2:3" ht="15.75">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>95</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="2:3" ht="15.75">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>95</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="2:3" ht="15.75">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>95</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="2:3" ht="15.75">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>95</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="2:3" ht="15.75">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>95</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="2:3" ht="15.75">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>95</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="2:3" ht="15.75">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>95</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="2:3" ht="15.75">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>95</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="2:3" ht="15.75">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>95</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="2:3" ht="15.75">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>95</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="95" spans="2:3" ht="15.75">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>95</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="2:3" ht="15.75">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>95</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="2:8" ht="15.75">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>95</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="2:8" ht="15.75">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>95</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="15.75">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>95</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="15.75">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>95</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="15.75">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>95</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="15.75">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>95</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="2:8" ht="15.75">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>95</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="2:8" ht="15.75">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>95</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="2:8" ht="15.75">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>95</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="2:8" ht="15.75">
+    <row r="106" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>95</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="2:8" ht="15.75">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>95</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="2:8" ht="15.75">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>95</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="2:8" ht="15.75">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>95</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="110" spans="2:8" ht="15.75">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>95</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="2:8" ht="15.75">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>95</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="2:8" ht="15.75">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>95</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>95</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>95</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>95</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>95</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>95</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>95</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>95</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>95</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>95</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>95</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>95</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>95</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>133</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>95</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>95</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>95</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15.75">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>95</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15.75">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>95</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15.75">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>95</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.75">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15.75">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>95</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15.75">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>49</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15.75">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>49</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15.75">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>49</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.75">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>49</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15.75">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>49</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15.75">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>95</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15.75">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>95</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15.75">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>95</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15.75">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>95</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15.75">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>95</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15.75">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>95</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="2:3" ht="15.75">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>95</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="2:3" ht="15.75">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>95</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="2:3" ht="15.75">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>95</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="2:3" ht="15.75">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>95</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="2:3" ht="15.75">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>95</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="2:3" ht="15.75">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>95</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="2:3" ht="15.75">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>95</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="2:3" ht="15.75">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>95</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="2:3" ht="15.75">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>95</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="2:3" ht="15.75">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>95</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="2:3" ht="15.75">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>95</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="2:3" ht="15.75">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>95</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="2:3" ht="15.75">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>95</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="2:3" ht="15.75">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>95</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="2:3" ht="15.75">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>95</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="2:3" ht="15.75">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>95</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="2:6" ht="15.75">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>95</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="162" spans="2:6" ht="15.75">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>95</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="2:6" ht="15.75">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>95</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="2:6" ht="15.75">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>95</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="2:6" ht="15.75">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>95</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="2:6" ht="15.75">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>95</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="2:6" ht="15.75">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>95</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="2:6" ht="15.75">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>95</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="2:6" ht="15.75">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>95</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="2:6" ht="15.75">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>95</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="2:6" ht="15.75">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>95</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="2:6" ht="15.75">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>95</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="2:6" ht="15.75">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>95</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="2:6" ht="15.75">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>95</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="2:6" ht="15.75">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>95</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="2:6" ht="15.75">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>95</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="2:6" ht="15.75">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>95</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="2:6" ht="15.75">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>95</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="2:6" ht="15.75">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>95</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="2:6" ht="15.75">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>95</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="2:6" ht="15.75">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>95</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="2:6" ht="15.75">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>95</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="2:6" ht="15.75">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>95</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="2:6" ht="15.75">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>95</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="2:6" ht="15.75">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>95</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="186" spans="2:6" ht="15.75">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>95</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="187" spans="2:6" ht="15.75">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>95</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="188" spans="2:6" ht="15.75">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>95</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="189" spans="2:6" ht="15.75">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>95</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="2:6" ht="15.75">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>95</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="2:6" ht="15.75">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>95</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="2:6" ht="15.75">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>95</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="2:7" ht="15.75">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>95</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="2:7" ht="15.75">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>95</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="2:7" ht="15.75">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>95</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="2:7" ht="15.75">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>95</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="2:7" ht="15.75">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>95</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="2:7" ht="15.75">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>95</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="2:7" ht="15.75">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>95</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="2:7" ht="15.75">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>95</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="2:7" ht="15.75">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>95</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="2:7" ht="15.75">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>95</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="2:7" ht="15.75">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>95</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="2:7" ht="15.75">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>95</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="2:7" ht="15.75">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>95</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="2:7" ht="15.75">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>95</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="2:7" ht="15.75">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>95</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="2:7" ht="15.75">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>95</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="209" spans="2:3" ht="15.75">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>95</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="210" spans="2:3" ht="15.75">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>95</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="2:3" ht="15.75">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>95</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="212" spans="2:3" ht="15.75">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>95</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="213" spans="2:3" ht="15.75">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
         <v>95</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="214" spans="2:3" ht="15.75">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
         <v>95</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="2:3" ht="15.75">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
         <v>95</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="216" spans="2:3" ht="15.75">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
         <v>95</v>
       </c>
@@ -3224,29 +3224,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="c4b7963d-843e-40e4-a8d3-b00e46280347" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa06cdfb-1593-43b3-a459-873f1f2b6a39">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Content_Type xmlns="aa06cdfb-1593-43b3-a459-873f1f2b6a39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003DB60B70876D3B4FA87DE55CF466E6DD" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2a149b86a5ab80e62b80aa78010e41c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa06cdfb-1593-43b3-a459-873f1f2b6a39" xmlns:ns3="c4b7963d-843e-40e4-a8d3-b00e46280347" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0247b83ea808a9ee896af32617548341" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3524,14 +3501,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="c4b7963d-843e-40e4-a8d3-b00e46280347" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa06cdfb-1593-43b3-a459-873f1f2b6a39">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Content_Type xmlns="aa06cdfb-1593-43b3-a459-873f1f2b6a39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD0C2EC4-96A2-42D7-B1FD-BF30E3023E3D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E14E322-083D-44B8-88A5-9B1649D83DD1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="aa06cdfb-1593-43b3-a459-873f1f2b6a39"/>
+    <ds:schemaRef ds:uri="c4b7963d-843e-40e4-a8d3-b00e46280347"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDFFA260-B8EF-464C-97A6-04921B47AC0F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDFFA260-B8EF-464C-97A6-04921B47AC0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E14E322-083D-44B8-88A5-9B1649D83DD1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD0C2EC4-96A2-42D7-B1FD-BF30E3023E3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="c4b7963d-843e-40e4-a8d3-b00e46280347"/>
+    <ds:schemaRef ds:uri="aa06cdfb-1593-43b3-a459-873f1f2b6a39"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>